--- a/22TDEM参考代码/22TDEM_自动化测试.xlsx
+++ b/22TDEM参考代码/22TDEM_自动化测试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="891" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13920" tabRatio="891" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Speed" sheetId="18" r:id="rId1"/>
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163">
   <si>
     <t>计划：</t>
   </si>
@@ -590,9 +590,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1.Tuner1,Tuner2</t>
     </r>
@@ -609,9 +607,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>{AM,FM1,FM2}
 2.随机切换频道∈{{left,right}，[1,3]}</t>
@@ -998,12 +994,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1041,7 +1037,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,6 +1073,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1063,30 +1112,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,37 +1159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1145,40 +1173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,12 +1190,6 @@
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1235,13 +1225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,7 +1249,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,19 +1327,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,115 +1399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,21 +1443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -1618,13 +1593,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1639,21 +1629,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1663,13 +1638,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1733,17 +1723,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1756,26 +1735,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1791,6 +1757,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1819,17 +1800,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1838,155 +1828,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2005,46 +1995,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2053,10 +2040,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2065,222 +2052,219 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="45">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="45" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="45" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="45" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="45" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="45" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="45" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="45" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="45" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="45" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="45" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="45" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="45" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="45" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="45" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="45" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="42" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="20" xfId="45" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="42" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="45" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="45" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="20" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="14" xfId="45" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="42" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="42" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="42" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="42" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="45" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="45" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="Normal 2" xfId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="Normal 2" xfId="45"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2327,8 +2311,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="1809750"/>
-          <a:ext cx="4641215" cy="3042285"/>
+          <a:off x="640080" y="2235200"/>
+          <a:ext cx="4366895" cy="3723005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2371,8 +2355,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="5972175"/>
-          <a:ext cx="3619500" cy="2943225"/>
+          <a:off x="640080" y="7376160"/>
+          <a:ext cx="3390900" cy="3623945"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2415,8 +2399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="771525" y="13649325"/>
-          <a:ext cx="5829300" cy="5394960"/>
+          <a:off x="725805" y="16840200"/>
+          <a:ext cx="5463540" cy="6671310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2459,8 +2443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="20269200"/>
-          <a:ext cx="7772400" cy="2473325"/>
+          <a:off x="640080" y="25034240"/>
+          <a:ext cx="7269480" cy="3026410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2503,8 +2487,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="23698200"/>
-          <a:ext cx="4152900" cy="3457575"/>
+          <a:off x="668655" y="29229050"/>
+          <a:ext cx="3878580" cy="4308475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2548,8 +2532,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="28051125"/>
-          <a:ext cx="3657600" cy="1333500"/>
+          <a:off x="640080" y="34645600"/>
+          <a:ext cx="3429000" cy="1631315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2602,8 +2586,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="33147000"/>
-          <a:ext cx="2695575" cy="1590675"/>
+          <a:off x="640080" y="40932735"/>
+          <a:ext cx="2512695" cy="1931035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2646,8 +2630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="35261550"/>
-          <a:ext cx="4619625" cy="3351530"/>
+          <a:off x="668655" y="43515280"/>
+          <a:ext cx="4345305" cy="4159885"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2690,8 +2674,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="30765750"/>
-          <a:ext cx="7772400" cy="2099945"/>
+          <a:off x="640080" y="37998400"/>
+          <a:ext cx="7269480" cy="2567940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2734,8 +2718,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="39090600"/>
-          <a:ext cx="2667000" cy="1438275"/>
+          <a:off x="640080" y="48280320"/>
+          <a:ext cx="2529840" cy="1736090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3003,15 +2987,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="$A13:$XFD13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
@@ -3020,8 +3004,8 @@
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="76" customWidth="1"/>
-    <col min="9" max="9" width="78.625" style="76" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="78.625" style="74" customWidth="1"/>
     <col min="10" max="10" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3031,468 +3015,468 @@
       </c>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="85" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="82">
+      <c r="D3" s="78">
         <v>43922</v>
       </c>
-      <c r="E3" s="82">
+      <c r="E3" s="78">
         <v>43922</v>
       </c>
-      <c r="F3" s="83">
+      <c r="F3" s="86">
         <v>1</v>
       </c>
-      <c r="G3" s="80">
+      <c r="G3" s="76">
         <v>1000</v>
       </c>
-      <c r="H3" s="80" t="s">
+      <c r="H3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="80" t="s">
+      <c r="I3" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="85"/>
-      <c r="K3" s="80"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="82">
+      <c r="D4" s="78">
         <v>43924</v>
       </c>
-      <c r="E4" s="82">
+      <c r="E4" s="78">
         <v>43923</v>
       </c>
-      <c r="F4" s="84">
+      <c r="F4" s="87">
         <v>1</v>
       </c>
-      <c r="G4" s="80">
+      <c r="G4" s="76">
         <v>1000</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="80"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="76"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="78">
         <v>43923</v>
       </c>
-      <c r="E5" s="82">
+      <c r="E5" s="78">
         <v>43924</v>
       </c>
-      <c r="F5" s="83">
+      <c r="F5" s="86">
         <v>1</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="76">
         <v>1000</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="80" t="s">
+      <c r="I5" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="80"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="76"/>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="78">
         <v>43928</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="78">
         <v>43929</v>
       </c>
-      <c r="F6" s="83">
+      <c r="F6" s="86">
         <v>1</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="76">
         <v>1000</v>
       </c>
-      <c r="H6" s="80" t="s">
+      <c r="H6" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="80" t="s">
+      <c r="I6" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="85"/>
-      <c r="K6" s="80"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="76"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="82">
+      <c r="D7" s="78">
         <v>43928</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="78">
         <v>43928</v>
       </c>
-      <c r="F7" s="83">
+      <c r="F7" s="86">
         <v>1</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="76">
         <v>1000</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="80"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="76"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="78">
         <v>43929</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="78">
         <v>43928</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="86">
         <v>1</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="76">
         <v>1000</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="85"/>
-      <c r="K8" s="91" t="s">
+      <c r="J8" s="79"/>
+      <c r="K8" s="89" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="82">
+      <c r="D9" s="78">
         <v>43929</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="78">
         <v>43931</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="86">
         <v>1</v>
       </c>
-      <c r="G9" s="80">
+      <c r="G9" s="76">
         <v>1000</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="80" t="s">
+      <c r="I9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="91" t="s">
+      <c r="J9" s="79"/>
+      <c r="K9" s="89" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="82">
+      <c r="D10" s="78">
         <v>43930</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="78">
         <v>43931</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="86">
         <v>1</v>
       </c>
-      <c r="G10" s="80">
+      <c r="G10" s="76">
         <v>1000</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="80" t="s">
+      <c r="I10" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="80"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="76"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="82">
+      <c r="D11" s="78">
         <v>43930</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="78">
         <v>43931</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="86">
         <v>1</v>
       </c>
-      <c r="G11" s="80">
+      <c r="G11" s="76">
         <v>1000</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="85"/>
-      <c r="K11" s="80"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="76"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="82">
+      <c r="D12" s="78">
         <v>43931</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="78">
         <v>43928</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="86">
         <v>1</v>
       </c>
-      <c r="G12" s="80">
+      <c r="G12" s="76">
         <v>1000</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="85"/>
-      <c r="K12" s="80"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="76"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="82">
+      <c r="D13" s="78">
         <v>43931</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="78">
         <v>43929</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="86">
         <v>1</v>
       </c>
-      <c r="G13" s="80">
+      <c r="G13" s="76">
         <v>1000</v>
       </c>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="80" t="s">
+      <c r="I13" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="85"/>
-      <c r="K13" s="80"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="76"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="82">
+      <c r="D14" s="78">
         <v>43922</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="78">
         <v>43922</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="86">
         <v>1</v>
       </c>
-      <c r="G14" s="80">
+      <c r="G14" s="76">
         <v>1000</v>
       </c>
-      <c r="H14" s="80" t="s">
+      <c r="H14" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="80" t="s">
+      <c r="I14" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="85"/>
-      <c r="K14" s="80"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="76"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="82">
+      <c r="D15" s="78">
         <v>43923</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="78">
         <v>43924</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="86">
         <v>1</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="76">
         <v>1000</v>
       </c>
-      <c r="H15" s="80" t="s">
+      <c r="H15" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="80" t="s">
+      <c r="I15" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="85"/>
-      <c r="K15" s="80"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="85" t="s">
+      <c r="C16" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="82">
+      <c r="D16" s="78">
         <v>43934</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="78">
         <v>43923</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="87">
         <v>1</v>
       </c>
-      <c r="G16" s="80">
+      <c r="G16" s="76">
         <v>1000</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="85" t="s">
+      <c r="I16" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="C17" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="82">
         <v>43924</v>
       </c>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="82">
         <v>43934</v>
       </c>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="86"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3502,15 +3486,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A3:K29"/>
+  <dimension ref="A2:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6"/>
   <cols>
     <col min="1" max="1" width="11.125" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -3525,7 +3509,8 @@
     <col min="11" max="11" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" s="32" customFormat="1" ht="15" spans="1:11">
+    <row r="2" ht="18.35"/>
+    <row r="3" s="32" customFormat="1" ht="18.35" spans="1:11">
       <c r="A3" s="33" t="s">
         <v>9</v>
       </c>
@@ -3547,494 +3532,494 @@
       <c r="G3" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="66" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
+    <row r="4" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="71"/>
-    </row>
-    <row r="5" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="45" t="s">
+      <c r="H4" s="51"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="46"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74"/>
-    </row>
-    <row r="6" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="44" t="s">
+      <c r="H5" s="54"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="74"/>
-    </row>
-    <row r="7" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45" t="s">
+      <c r="H6" s="54"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="74"/>
-    </row>
-    <row r="8" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44" t="s">
+      <c r="H7" s="54"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="46"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="74"/>
-    </row>
-    <row r="9" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A9" s="41"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45" t="s">
+      <c r="H8" s="54"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="72"/>
+    </row>
+    <row r="9" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="46"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="74"/>
-    </row>
-    <row r="10" s="32" customFormat="1" ht="28.5" spans="1:11">
-      <c r="A10" s="41"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43" t="s">
+      <c r="H9" s="54"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="72"/>
+    </row>
+    <row r="10" s="32" customFormat="1" ht="36" spans="1:11">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45" t="s">
+      <c r="F10" s="53"/>
+      <c r="G10" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="74"/>
-    </row>
-    <row r="11" s="32" customFormat="1" ht="28.5" spans="1:11">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="45" t="s">
+      <c r="H10" s="54"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+    </row>
+    <row r="11" s="32" customFormat="1" ht="36" spans="1:11">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45" t="s">
+      <c r="F11" s="53"/>
+      <c r="G11" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="46"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="74"/>
-    </row>
-    <row r="12" s="32" customFormat="1" ht="28.5" spans="1:11">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="45" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+    </row>
+    <row r="12" s="32" customFormat="1" ht="36" spans="1:11">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45" t="s">
+      <c r="F12" s="53"/>
+      <c r="G12" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="H12" s="46"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="74"/>
-    </row>
-    <row r="13" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42" t="s">
+      <c r="H12" s="54"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
+    </row>
+    <row r="13" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="74"/>
-    </row>
-    <row r="14" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45" t="s">
+      <c r="H13" s="54"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+    </row>
+    <row r="14" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="74"/>
-    </row>
-    <row r="15" s="32" customFormat="1" ht="28.5" spans="1:11">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="47" t="s">
+      <c r="H14" s="54"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+    </row>
+    <row r="15" s="32" customFormat="1" ht="36" spans="1:11">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45" t="s">
+      <c r="F15" s="53"/>
+      <c r="G15" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="74"/>
-    </row>
-    <row r="16" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="48" t="s">
+      <c r="H15" s="54"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+    </row>
+    <row r="16" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="74"/>
-    </row>
-    <row r="17" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="45" t="s">
+      <c r="G16" s="53"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+    </row>
+    <row r="17" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="74"/>
-    </row>
-    <row r="18" s="32" customFormat="1" ht="28.5" spans="1:11">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="47" t="s">
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+    </row>
+    <row r="18" s="32" customFormat="1" ht="36" spans="1:11">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
-    </row>
-    <row r="19" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="49" t="s">
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+    </row>
+    <row r="19" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="45" t="s">
+      <c r="E19" s="56"/>
+      <c r="F19" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
-    </row>
-    <row r="20" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="45" t="s">
+      <c r="G19" s="53"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+    </row>
+    <row r="20" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74"/>
-    </row>
-    <row r="21" s="32" customFormat="1" ht="28.5" spans="1:11">
-      <c r="A21" s="41"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="47" t="s">
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+    </row>
+    <row r="21" s="32" customFormat="1" ht="36" spans="1:11">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="74"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
     </row>
     <row r="22" s="32" customFormat="1" ht="81" customHeight="1" spans="1:11">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="74"/>
-    </row>
-    <row r="23" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A23" s="41"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="45" t="s">
+      <c r="H22" s="54"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+    </row>
+    <row r="23" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="56" t="s">
+      <c r="G23" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-    </row>
-    <row r="24" s="32" customFormat="1" ht="28.5" spans="1:11">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="47" t="s">
+      <c r="H23" s="54"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+    </row>
+    <row r="24" s="32" customFormat="1" ht="36" spans="1:11">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="56" t="s">
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="74"/>
-    </row>
-    <row r="25" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42" t="s">
+      <c r="H24" s="54"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+    </row>
+    <row r="25" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="G25" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="46"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-    </row>
-    <row r="26" s="32" customFormat="1" ht="42.75" spans="1:11">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45" t="s">
+      <c r="H25" s="54"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+    </row>
+    <row r="26" s="32" customFormat="1" ht="53" spans="1:11">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="58" t="s">
+      <c r="G26" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="46"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-    </row>
-    <row r="27" s="32" customFormat="1" ht="28.5" spans="1:11">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="59" t="s">
+      <c r="H26" s="54"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="72"/>
+    </row>
+    <row r="27" s="32" customFormat="1" ht="36" spans="1:11">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61" t="s">
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="46"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
-    </row>
-    <row r="28" s="32" customFormat="1" ht="29.25" spans="1:11">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63" t="s">
+      <c r="H27" s="54"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="72"/>
+    </row>
+    <row r="28" s="32" customFormat="1" ht="36.75" spans="1:11">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="66" t="s">
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="75"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="67"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4069,15 +4054,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.25" customWidth="1"/>
     <col min="2" max="2" width="32.25" customWidth="1"/>
@@ -4086,7 +4071,7 @@
     <col min="5" max="5" width="43.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" spans="2:5">
+    <row r="1" ht="21.15" spans="2:5">
       <c r="B1" s="4" t="s">
         <v>71</v>
       </c>
@@ -4096,266 +4081,266 @@
       <c r="D1" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" ht="71.25" spans="2:5">
-      <c r="B2" s="7" t="s">
+    <row r="2" ht="88" spans="2:5">
+      <c r="B2" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="99.75" spans="2:5">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" ht="124" spans="2:5">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" ht="85.5" spans="2:5">
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+    <row r="4" ht="106" spans="2:5">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" ht="99.75" spans="2:5">
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
+    <row r="5" ht="124" spans="2:5">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" ht="71.25" spans="2:5">
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+    <row r="6" ht="88" spans="2:5">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="27" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" ht="100.5" spans="2:5">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16" t="s">
+    <row r="7" ht="124.75" spans="2:5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" ht="156.75" spans="2:5">
-      <c r="B8" s="19" t="s">
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" ht="194" spans="2:5">
+      <c r="B8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" ht="142.5" spans="2:5">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24" t="s">
+    <row r="9" ht="176" spans="2:5">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" ht="213.75" spans="2:5">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24" t="s">
+    <row r="10" ht="282" spans="2:5">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" ht="156.75" spans="2:5">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24" t="s">
+    <row r="11" ht="194" spans="2:5">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" ht="156.75" spans="2:5">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24" t="s">
+    <row r="12" ht="194" spans="2:5">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="13" ht="142.5" spans="2:5">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24" t="s">
+    <row r="13" ht="176" spans="2:5">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" ht="199.5" spans="2:5">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24" t="s">
+    <row r="14" ht="264" spans="2:5">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="27" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" ht="128.25" spans="2:5">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24" t="s">
+    <row r="15" ht="159" spans="2:5">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="16" ht="142.5" spans="2:5">
-      <c r="B16" s="23"/>
-      <c r="C16" s="24" t="s">
+    <row r="16" ht="176" spans="2:5">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="27" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="17" ht="142.5" spans="2:5">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24" t="s">
+    <row r="17" ht="176" spans="2:5">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="27" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="18" ht="128.25" spans="2:5">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24" t="s">
+    <row r="18" ht="159" spans="2:5">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="27" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" ht="213.75" spans="2:5">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" ht="282" spans="2:5">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" ht="199.5" spans="2:5">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="264" spans="2:5">
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" ht="156.75" spans="2:5">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" ht="194" spans="2:5">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" ht="143.25" spans="2:5">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29" t="s">
+    <row r="24" ht="176.75" spans="2:5">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="24" t="s">
         <v>127</v>
       </c>
       <c r="E24" s="31" t="s">
@@ -4374,7 +4359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:B226"/>
   <sheetViews>
@@ -4382,7 +4367,7 @@
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -4563,41 +4548,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <commentList sheetStid="28">
-    <comment s:ref="F4" rgbClr="6FC7FC"/>
-    <comment s:ref="F5" rgbClr="6FC7FC"/>
-    <comment s:ref="F6" rgbClr="6FC7FC"/>
-    <comment s:ref="F7" rgbClr="6FC7FC"/>
-    <comment s:ref="F8" rgbClr="6FC7FC"/>
-    <comment s:ref="F9" rgbClr="6FC7FC"/>
-    <comment s:ref="F13" rgbClr="6FC7FC"/>
-    <comment s:ref="F14" rgbClr="6FC7FC"/>
-    <comment s:ref="F16" rgbClr="6FC7FC"/>
-    <comment s:ref="F17" rgbClr="6FC7FC"/>
-    <comment s:ref="F19" rgbClr="6FC7FC"/>
-    <comment s:ref="F20" rgbClr="6FC7FC"/>
-    <comment s:ref="F22" rgbClr="6FC7FC"/>
-    <comment s:ref="F23" rgbClr="6FC7FC"/>
-    <comment s:ref="F25" rgbClr="6FC7FC"/>
-    <comment s:ref="F26" rgbClr="6FC7FC"/>
-  </commentList>
-</comments>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>